--- a/out_file.xlsx
+++ b/out_file.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>vue-cli3 vue.config.js 配置记录.md</v>
+        <v>lodash.md</v>
       </c>
       <c r="B3" t="str">
         <v/>
@@ -419,27 +419,15 @@
         <v>2</v>
       </c>
       <c r="D3" t="str" xml:space="preserve">
-        <v xml:space="preserve">#### 1.配置webpack  `configureWebpack`
-&gt;  example(配置映射路径 @=&gt;'src')
-```
-var path = require('path')
-// vue-cli3 配置
-module.exports = {
-    configureWebpack:{
-        resolve:{
-            alias:{
-                '@': path.resolve('src'),
-            }
-        }
-    }
-}
-```
-</v>
+        <v xml:space="preserve">#### 简介
+Lodash是一个著名的javascript原生库，不需要引入其他第三方依赖。是一个意在提高开发者效率,提高JS原生方法性能的JS库。简单的说就是，很多方法lodash已经帮你写好了，直接调用就行，不用自己费尽心思去写了，而且可以统一方法的一致性。
+#### 官网
+&gt; https://www.lodashjs.com/s</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>React的生命周期.md</v>
+        <v>MySql(命令).md</v>
       </c>
       <c r="B4" t="str">
         <v/>
@@ -448,86 +436,6 @@
         <v>3</v>
       </c>
       <c r="D4" t="str" xml:space="preserve">
-        <v xml:space="preserve"># React的生命周期
-在react16.3中移除了以下的生命周期
-* componentWillMount
-* componentWillReceiveProps
-* componentWillUpdate
-添加了下列的生命周期 
-* static getDerivedStateFromProps
-* getSnapshotBeforeUpdate
-**注意:旧的生命周期函数和新的生命周期函数不能同时出现在同一组件中，否则会报错‘你使用了一个不安全的生命周期’**
-&gt; #### 为什么要移除这个几个生命周期呢?以前的生命周期明明十分完整？
-```
-react 17打算引入Async Rendering，可以打断生命周期的概念。
-试想下，如果生命周期被打断，恢复的时候就会重复执行之前已经执行过的生命周期。
-因此这三个方法被标记为‘不安全的’！
-```
-</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>qs.md</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v>4</v>
-      </c>
-      <c r="D5" t="str" xml:space="preserve">
-        <v xml:space="preserve">什么是qs？
-&gt; 解析字符串的js库
-如何使用？
-&gt; npm i -s qs  
-示例：
-```
-```</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>MySql(设计表).md</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v>5</v>
-      </c>
-      <c r="D6" t="str" xml:space="preserve">
-        <v xml:space="preserve"># MySql(设计表)
-## 金额相关的字段设计
-&gt; 采用decimal类型，但是设置默认的值要为0.00。**不要用默认的NULL**  
-&gt; （否则在进行加减排序等操作时, 会带来转换的麻烦!）</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>logback.md</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <v>6</v>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>MySql(命令).md</v>
-      </c>
-      <c r="B8" t="str">
-        <v/>
-      </c>
-      <c r="C8" t="str">
-        <v>7</v>
-      </c>
-      <c r="D8" t="str" xml:space="preserve">
         <v xml:space="preserve"># 导入redis
 &gt; mysql -utest -ptest stress --default-character-set=utf8 --skip-column-names --raw &lt; order.sql 
  redis-cli -h 192.168.42.111 -p 6379 -a 12345678  --pipe
@@ -570,9 +478,137 @@
 ```</v>
       </c>
     </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>node.md</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">#### mongo
+```
+1.下载mongodb
+curl -O https://fastdl.mongodb.org/linux/mongodb-linux-x86_64-3.2.9.tgz
+2.解压
+tar zxvf mongodb-linux-x86_64-3.2.9.tgz
+3.创建数据文件夹和日志文件等
+mkdir -p  /usr/local/mongodb/data
+touch /usr/local/mongodb/mongod.log
+touch /usr/local/mongodb/mongodb.conf
+4.启动
+　进入mongo的bin目录下执行
+（1）参数启动
+./mongod --dbpath=/usr/local/mongodb/data --logpath=/usr/local/mongodb/mongod.log --logappend  --port=27017 --fork
+　(2) 配置文件启动
+./mongod --config /usr/local/mongodb/mongodb.conf
+   配置文件如下
+dbpath=/usr/local/mongodb/data
+logpath=/usr/local/mongodb/mongod.log
+logappend = true 
+port = 27017 
+fork = true # 是否后台运行
+auth = true # 是否开启权限认证  默认不开启
+```
+https://www.cnblogs.com/jinxiao-pu/p/7121307.html</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Hook.md</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>&gt; 推荐地址： https://juejin.im/post/5c66344f6fb9a049d81c5e00</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>使用装饰器报错.md</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">**报错**
+&gt; Support for the experimental syntax 'decorators-legacy' isn't currently enabled (9:5):
+**解决**
+&gt; npm install @babel/plugin-proposal-decorators
+&gt; 在package.json中修改babel,如下
+```
+"babel": {
+    "plugins":[
+      [
+        "@babel/plugin-proposal-decorators",
+        {
+          "legacy":true
+        }
+      ],
+      [
+        "@babel/plugin-proposal-class-properties",
+        {
+          "loose":true
+        }
+      ]
+    ],
+    "presets": [
+      "react-app"
+    ]
+  }
+```</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>路由.md</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. withRouter
+&gt; 作用：把不是通过路由切换过来的组件中，将react-router 的 history、location、match 三个对象传入props对象上
+简而言之就是让不是通过路由渲染的组件的props上也可以获取到`当前路由`的信息
+&gt; 使用
+```
+import { withRouter } from 'react-router-dom';
+@withRouter
+class ComponentName extends  React.Component{
+    // 这样组件的props 就会默认有history、location、match 这三个对象 
+}
+--------------------
+export default withRouter(ComponentName);
+说白了，这就是装饰器
+所以用法和装饰器一样
+```
+&gt; 注意点： 路由的switch下的&lt;Rotue&gt;标签的path范围配置必须有小到大.
+如下: `/login`的路径在配置在 `/`前面
+```
+    &lt;Switch&gt;
+        &lt;Route path="/login" component={Login} /&gt;
+        &lt;Route path="/" component={() =&gt; &lt;Main content={&lt;ContentRoute /&gt;} /&gt;} /&gt;
+    &lt;/Switch&gt;
+```
+</v>
+      </c>
+    </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>解决vue 加载页面的时候，出现{{}} 闪烁.md</v>
+        <v>记vue-cli3 使用  element-ui搭建后台的经历.md</v>
       </c>
       <c r="B9" t="str">
         <v/>
@@ -581,21 +617,71 @@
         <v>8</v>
       </c>
       <c r="D9" t="str" xml:space="preserve">
-        <v xml:space="preserve">### 解决vue 加载页面的时候，出现{{}} 闪烁
-&gt; 使用 v-cloak
-```js
-[v-clock]{
-    display:none
+        <v xml:space="preserve">#### 1 路由的导入
+```
+const login = r =&gt; require.ensure([], () =&gt; r(require('@/page/login')), 'login');
+```
+与 
+```
+const login = r =&gt; import('@page/login')
+```
+&gt;  #### require.ensure() 是 webpack 特有的，已经被 import() 取代。
+####  2 css 的引用
+```
+&lt;style lang="less" scoped&gt;
+@import "~@/assets/css/style-mixin.less";
+&lt;/style&gt;
+```
+####  3 element UI 导航栏展开后子菜单宽度多出1px问题
+```
+.el-menu {
+  border-right-width: 0;
 }
-&lt;div v-cloak id="app"&gt;
-    {{message}}
+```
+#### 4 axios与vue-axios 的区别？
+&gt; axios的使用
+```
+import Vue from 'vue'
+import axios from 'axios';
+Vue.prototype.axios = axios
+```
+&gt; vue-axios的使用
+```
+import Vue from 'vue'
+import axios from 'axios';
+import VueAxios from 'vue-axios'
+Vue.use(VueAxios,axios);
+```
+&gt; 区别
+```
+ 其实本质上没有什么区别。只不过一种（axios）是采用挂载到vue实例的原型对象上，
+ 而另一种（axios + vue-axios）是通过插件的方式。
+```
+&gt; 为什么要用vue-axios呢
+```
+1.使用 Vue 的插件写法，更符合 Vue 整体生态环境。
+2.方便协作，多人协作的时候，不用注明变量声明。
+```
+#### 5 使用animate.css
+```
+第一步：安装：
+在命令行中执行：npm install animate.css --save
+第二步：引入及使用：
+main.js中：
+import animated from 'animate.css' // npm install animate.css --save安装，在引入
+Vue.use(animated)
+使用：
+vue模板中：
+&lt;div class="ty"&gt;
+    &lt;!-- 直接使用animated中的动画class名，注意：必须使用animated这个class名，否则动画会无效 --&gt;
+	&lt;div class="box animated bounceInDown"&gt;&lt;/div&gt;
 &lt;/div&gt;
 ```</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>权限校验（Springboot_shrio框架的使用）.md</v>
+        <v>axios.md</v>
       </c>
       <c r="B10" t="str">
         <v/>
@@ -603,13 +689,170 @@
       <c r="C10" t="str">
         <v>9</v>
       </c>
-      <c r="D10" t="str">
-        <v>https://blog.csdn.net/m0_37962779/article/details/78605478</v>
+      <c r="D10" t="str" xml:space="preserve">
+        <v xml:space="preserve">什么是axios? 
+&gt; 一个优秀的http库 
+如何使用？
+&gt; axios提供了许多方便的功能 （如：拦截）
+如何配置？
+&gt; axios提供create的方法，来创建自定的axios的示例
+&gt; axios.create(config)
+过滤的配置
+&gt; 过滤的话，分俩种`请求``相应` 
+请求
+```
+// Add a request interceptor
+axios.interceptors.request.use(function (config) {
+    // Do something before request is sent
+    return config;
+  }, function (error) {
+    // Do something with request error
+    return Promise.reject(error);
+  });
+```
+相应
+```
+// Add a response interceptor
+axios.interceptors.response.use(function (response) {
+    // Do something with response data
+    return response;
+  }, function (error) {
+    // Do something with response error
+    return Promise.reject(error);
+  });
+```
+官网配置示例
+&gt; 暂时意译比较常用的部分
+```
+{
+  // `url` is the server URL that will be used for the request
+  url: '/user',
+  // `method` 请求的方式 默认get
+  method: 'get', // default
+  // `baseURL` 会做为url，每次请求的地址可以省略前缀地址
+  baseURL: 'https://some-domain.com/api/',
+  // `transformRequest` 允许在请求前改变请求的数据，也可以改变header
+  // 适用 'PUT', 'POST', 'PATCH' and 'DELETE'
+  // 必须返回一个字符串或Buffer，ArrayBuffer， FormData或Stream的实例
+  transformRequest: [function (data, headers) {
+    // 可以改变你想修改的数据
+    return data;
+  }],
+  // `transformResponse` allows changes to the response data to be made before
+  // it is passed to then/catch
+  transformResponse: [function (data) {
+    // Do whatever you want to transform the data
+    return data;
+  }],
+  // `headers` are custom headers to be sent
+  headers: {'X-Requested-With': 'XMLHttpRequest'},
+  // `params` are the URL parameters to be sent with the request
+  // Must be a plain object or a URLSearchParams object
+  params: {
+    ID: 12345
+  },
+  //  `paramsSerializer`是一个可选函数，负责序列化`params`
+  paramsSerializer: function (params) {
+    return Qs.stringify(params, {arrayFormat: 'brackets'})
+  },
+  // `data` is the data to be sent as the request body
+  // Only applicable for request methods 'PUT', 'POST', and 'PATCH'
+  // When no `transformRequest` is set, must be of one of the following types:
+  // - string, plain object, ArrayBuffer, ArrayBufferView, URLSearchParams
+  // - Browser only: FormData, File, Blob
+  // - Node only: Stream, Buffer
+  data: {
+    firstName: 'Fred'
+  },
+  // `timeout` 请求的超时时间
+  timeout: 1000, // 默认为 `0` (不设置超时时间)
+  // `withCredentials` indicates whether or not cross-site Access-Control requests
+  // should be made using credentials
+  withCredentials: false, // default
+  // `adapter` allows custom handling of requests which makes testing easier.
+  // Return a promise and supply a valid response (see lib/adapters/README.md).
+  adapter: function (config) {
+    /* ... */
+  },
+  // `auth` indicates that HTTP Basic auth should be used, and supplies credentials.
+  // This will set an `Authorization` header, overwriting any existing
+  // `Authorization` custom headers you have set using `headers`.
+  // Please note that only HTTP Basic auth is configurable through this parameter.
+  // For Bearer tokens and such, use `Authorization` custom headers instead.
+  auth: {
+    username: 'janedoe',
+    password: 's00pers3cret'
+  },
+  // `responseType` indicates the type of data that the server will respond with
+  // options are: 'arraybuffer', 'document', 'json', 'text', 'stream'
+  //   browser only: 'blob'
+  responseType: 'json', // default
+  // `responseEncoding` indicates encoding to use for decoding responses
+  // Note: Ignored for `responseType` of 'stream' or client-side requests
+  responseEncoding: 'utf8', // default
+  // `xsrfCookieName` is the name of the cookie to use as a value for xsrf token
+  xsrfCookieName: 'XSRF-TOKEN', // default
+  // `xsrfHeaderName` is the name of the http header that carries the xsrf token value
+  xsrfHeaderName: 'X-XSRF-TOKEN', // default
+  // `onUploadProgress` 允许处理上传的进度事件
+  onUploadProgress: function (progressEvent) {
+    // 做任何你想在上传进度时要做的事情
+  },
+  // `onDownloadProgress` 允许处理下载的进度事件
+  onDownloadProgress: function (progressEvent) {
+    // 做任何你想在下载进度时要做的事情
+  },
+  // `maxContentLength` defines the max size of the http response content in bytes allowed
+  maxContentLength: 2000,
+  // `validateStatus` defines whether to resolve or reject the promise for a given
+  // HTTP response status code. If `validateStatus` returns `true` (or is set to `null`
+  // or `undefined`), the promise will be resolved; otherwise, the promise will be
+  // rejected.
+  validateStatus: function (status) {
+    return status &gt;= 200 &amp;&amp; status &lt; 300; // default
+  },
+  // `maxRedirects` defines the maximum number of redirects to follow in node.js.
+  // If set to 0, no redirects will be followed.
+  maxRedirects: 5, // default
+  // `socketPath` defines a UNIX Socket to be used in node.js.
+  // e.g. '/var/run/docker.sock' to send requests to the docker daemon.
+  // Only either `socketPath` or `proxy` can be specified.
+  // If both are specified, `socketPath` is used.
+  socketPath: null, // default
+  // `httpAgent` and `httpsAgent` define a custom agent to be used when performing http
+  // and https requests, respectively, in node.js. This allows options to be added like
+  // `keepAlive` that are not enabled by default.
+  httpAgent: new http.Agent({ keepAlive: true }),
+  httpsAgent: new https.Agent({ keepAlive: true }),
+  // 'proxy' defines the hostname and port of the proxy server.
+  // You can also define your proxy using the conventional `http_proxy` and
+  // `https_proxy` environment variables. If you are using environment variables
+  // for your proxy configuration, you can also define a `no_proxy` environment
+  // variable as a comma-separated list of domains that should not be proxied.
+  // Use `false` to disable proxies, ignoring environment variables.
+  // `auth` indicates that HTTP Basic auth should be used to connect to the proxy, and
+  // supplies credentials.
+  // This will set an `Proxy-Authorization` header, overwriting any existing
+  // `Proxy-Authorization` custom headers you have set using `headers`.
+  proxy: {
+    host: '127.0.0.1',
+    port: 9000,
+    auth: {
+      username: 'mikeymike',
+      password: 'rapunz3l'
+    }
+  },
+  // `cancelToken` specifies a cancel token that can be used to cancel the request
+  // (see Cancellation section below for details)
+  cancelToken: new CancelToken(function (cancel) {
+  })
+}
+```</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>react [ FIGHTING!!!].md</v>
+        <v>qs.md</v>
       </c>
       <c r="B11" t="str">
         <v/>
@@ -618,6 +861,98 @@
         <v>10</v>
       </c>
       <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">什么是qs？
+&gt; 解析字符串的js库
+如何使用？
+&gt; npm i -s qs  
+示例：
+```
+```</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>cross-env.md</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v>11</v>
+      </c>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">什么是cross-env ?
+&gt; 跨平台设置及使用环境变量
+cross-env的作用？
+&gt; 在windows平台下使用类似于: NODE_ENV=production的命令行指令会卡住，windows平台与POSIX在使用命令行时有许多区别（例如在POSIX，使用$ENV_VAR,在windows，使用%ENV_VAR%
+cross-env怎么使用？
+&gt; 1. 安装 npm i -s cross-env
+&gt; 2. 到package.json中配置scripts命令脚本
+示例： 
+```
+{
+  "scripts": {
+    "build": "cross-env NODE_ENV=production webpack --config build/webpack.config.js"
+  }
+}
+```</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>gh-pages.md</v>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 将项目部署到github page
+&gt; 项目地址： https://github.com/tschaub/gh-pages
+```
+1.package.json中添加 homepage属性 值为'用户名/github.com/自己的仓库名'
+2.script中添加    "deploy": "gh-pages -d dist"  (注意当中的'dist'是项目打包好的目录)
+```
+ok@!</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>前端开发总结.md</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>13</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">```_x000d_
+前端：_x000d_
+1.登录拦截 （axios拦截） _x000d_
+2.路由设计 _x000d_
+3.组件封装考虑 _x000d_
+4.共有属性的状态管理_x000d_
+5.调用接口方法提取_x000d_
+```_x000d_
+_x000d_
+#### 编写组件_x000d_
+`先画UI` -&gt; `再处理事件`</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>react [ FIGHTING!!!].md</v>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v>14</v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
         <v xml:space="preserve">&lt;h1 align="center"&gt;FIGHTING! Go Go Go&lt;/h1&gt;
 序言： 才刚开始呢！niu bi了,再写序言~ HaHaHa✨✨✨
 ## 🌱项目启动&amp;打包
@@ -658,37 +993,273 @@
 </v>
       </c>
     </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
-        <v>gh-pages.md</v>
-      </c>
-      <c r="B12" t="str">
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <v>11</v>
-      </c>
-      <c r="D12" t="str" xml:space="preserve">
-        <v xml:space="preserve"># 将项目部署到github page
-&gt; 项目地址： https://github.com/tschaub/gh-pages
-```
-1.package.json中添加 homepage属性 值为'用户名/github.com/自己的仓库名'
-2.script中添加    "deploy": "gh-pages -d dist"  (注意当中的'dist'是项目打包好的目录)
-```
-ok@!</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>React的生命周期.md</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve"># React的生命周期
+在react16.3中移除了以下的生命周期
+* componentWillMount
+* componentWillReceiveProps
+* componentWillUpdate
+添加了下列的生命周期 
+* static getDerivedStateFromProps
+* getSnapshotBeforeUpdate
+**注意:旧的生命周期函数和新的生命周期函数不能同时出现在同一组件中，否则会报错‘你使用了一个不安全的生命周期’**
+&gt; #### 为什么要移除这个几个生命周期呢?以前的生命周期明明十分完整？
+```
+react 17打算引入Async Rendering，可以打断生命周期的概念。
+试想下，如果生命周期被打断，恢复的时候就会重复执行之前已经执行过的生命周期。
+因此这三个方法被标记为‘不安全的’！
+```
+</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>react-redux.md</v>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v>16</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 个人理解_x000d_
+```_x000d_
+注： 外层包裹（Provider 通过store传入）_x000d_
+1. 组件   通过props获取_x000d_
+2. 组件connect -&gt; 映射 mapStateToProps 和 mapDispatchToProps _x000d_
+3. 创建reducer函数 、 action （{type: XX , value: XXX} [也可以改成通用的函数返回]）_x000d_
+···_x000d_
+reducer函数？ -&gt; (state,action) =&gt; { 通过action的type区分要操作的动作,返回state}_x000d_
+reducer通过createState函数挂载到store _x000d_
+···_x000d_
+```_x000d_
+&gt; 补充:  _x000d_
+&gt; mapStateToProps _x000d_
+```_x000d_
+接受一个参数（store对象）, 返回一个对象_x000d_
+```_x000d_
+&gt; mapDispatchToProps_x000d_
+```_x000d_
+丨--函数形式 （接收俩个参数，dispath,props）--&gt; 应该返回对象  {映射函数名：()=&gt;{} // dispatch函数}_x000d_
+丨--对象形式--&gt;  {映射函数名：(dispath)=&gt;{} // dispatch}_x000d_
+```_x000d_
+                _x000d_
+#  redux 与 react-redux_x000d_
+Redux_x000d_
+```_x000d_
+component --&gt; dispatch(action) --&gt; reducer --&gt; subscribe --&gt; getState --&gt; component_x000d_
+```_x000d_
+React-Redux_x000d_
+```_x000d_
+component --&gt; actionCreator(data) --&gt; reducer --&gt; component_x000d_
+```_x000d_
+_x000d_
+# 为啥要用react-redux_x000d_
+```_x000d_
+React其实跟Redux没有直接联系，也就是说，Redux中dispatch触发store tree中state变化，并不会导致React重新渲染。_x000d_
+```_x000d_
+_x000d_
+# 编写的顺序_x000d_
+```_x000d_
+/*_x000d_
+* 1. 提取属性变量到store.js  （存放在state）_x000d_
+* 2. 创建reducer 传入state,编写改变的action_x000d_
+* 3. 使用比较频繁的action可以单独创建函数，封装返回action_x000d_
+* 4. combineReducers整合reducer，传入createState_x000d_
+*_x000d_
+* 调用： @connect()  传入函数 (state)=&gt;({XX: state.XX })_x000d_
+*  this.dispatch(action) 传入action _x000d_
+*/_x000d_
+```</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>vue-cli3 vue.config.js 配置记录.md</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>17</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">#### 1.配置webpack  `configureWebpack`
+&gt;  example(配置映射路径 @=&gt;'src')
+```
+var path = require('path')
+// vue-cli3 配置
+module.exports = {
+    configureWebpack:{
+        resolve:{
+            alias:{
+                '@': path.resolve('src'),
+            }
+        }
+    }
+}
+```
+</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>项目遇到的问题.md</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>18</v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v xml:space="preserve">### 1. 跨域代理问题 (cros proxy)
+&gt;   根目录添加vue.config.js, 搜文档"proxy"
+### 2. 对vue动画的理解
+### 3. 时间转化库 moment.js
+### 4. 评论功能组件的封装
+### 5. domObject.getBoundingClientRect()
+&gt; 获取盒子距屏幕的宽高
+### 6. 动态引入图片路径
+```
+vue-cli3中内置的webpack会把图片当做一个模块引用，然后打包等等
+```
+### 7. 
+### css  less语法
+&gt; * 并集选择器 和 伪类选择器的写法
+&gt;&gt; 并集选择器
+```css
+.mint-swipe-item {
+    &amp;:nth-child(2n) {
+      background-color: aqua;
+    }
+    &amp;:nth-child(2n + 1) {
+      background-color: greenyellow;
+    }
+    img {
+      width: 100%;
+      height: 100%;
+    }
+}
+```</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>解决vue 加载页面的时候，出现{{}} 闪烁.md</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>19</v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">### 解决vue 加载页面的时候，出现{{}} 闪烁
+&gt; 使用 v-cloak
+```js
+[v-clock]{
+    display:none
+}
+&lt;div v-cloak id="app"&gt;
+    {{message}}
+&lt;/div&gt;
+```</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>权限校验（Springboot_shrio框架的使用）.md</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>20</v>
+      </c>
+      <c r="D21" t="str">
+        <v>https://blog.csdn.net/m0_37962779/article/details/78605478</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>spring的那些小事.md</v>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v>21</v>
+      </c>
+      <c r="D22" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 关于spring的那些小事
+### JPA 
+&gt; 推荐博客： https://www.cnblogs.com/wangdaijun/p/7064979.html
+#### 读取配置文件中的属性  
+```
+  @PropertySource("classpath:config/webservice.properties")
+  类名{
+      @Value("${属性名}")
+      private String 属性名;
+  }
+```
+### springboot如何启用外部tomcat 
+```
+```
+### BeanPostProcesso
+```
+```
+</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>MySql(优化).md</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v>22</v>
+      </c>
+      <c r="D23" t="str" xml:space="preserve">
+        <v xml:space="preserve">
+## sql优化
+* **插入：**
+&gt; 拼接一条sql语句,使用**values**。  
+&gt;&gt; insert into user (username,age) values ('李四','18'),('张三','20');  
+&gt; 使用一个事务。  
+&gt;&gt; 批量操作完成，再提交。 **减少**对io的操作
+&gt; 关闭唯一性检查
+&gt;&gt; 关闭：set unique_checks = 0  
+&gt;&gt; 开启：set unique_checks = 1
+## 索引设计
+###
+*  索引分**主键索引**、**唯一索引**、**普通索引**以及**联合索引**</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
         <v>MySql.md</v>
       </c>
-      <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <v>12</v>
-      </c>
-      <c r="D13" t="str" xml:space="preserve">
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v>23</v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
         <v xml:space="preserve"># MySql
 ## 分库分表
 &gt; mycat
@@ -745,17 +1316,31 @@
 &gt; SELECT 某一列, COUNT( 某一列 ) FROM 表 GROUP BY 某一列 HAVING COUNT( 某一列 ) 〉1</v>
       </c>
     </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
+    <row r="25">
+      <c r="A25" t="str">
+        <v>logback.md</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v>24</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
         <v>Spring Aop.md</v>
       </c>
-      <c r="B14" t="str">
-        <v/>
-      </c>
-      <c r="C14" t="str">
-        <v>13</v>
-      </c>
-      <c r="D14" t="str" xml:space="preserve">
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v>25</v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
         <v xml:space="preserve"># aop思想
 &gt; 面向切面编写
 ## 相关概念和知识点
@@ -790,17 +1375,34 @@
   3. 声明事务的管理配置 </v>
       </c>
     </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>MySql(设计表).md</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v>26</v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v xml:space="preserve"># MySql(设计表)
+## 金额相关的字段设计
+&gt; 采用decimal类型，但是设置默认的值要为0.00。**不要用默认的NULL**  
+&gt; （否则在进行加减排序等操作时, 会带来转换的麻烦!）</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
         <v>Redis.md</v>
       </c>
-      <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str">
-        <v>14</v>
-      </c>
-      <c r="D15" t="str" xml:space="preserve">
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v>27</v>
+      </c>
+      <c r="D28" t="str" xml:space="preserve">
         <v xml:space="preserve"># 批量操作 
 &gt; 使用pipe批量提交 (PipeLine类，执行sync()方法提交)
 # 设置保存慢查询
@@ -815,235 +1417,45 @@
 </v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
+    <row r="29">
+      <c r="A29" t="str">
         <v>测压.note</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B29" t="str">
         <v>1.benchmark  (可以测试redis)</v>
       </c>
-      <c r="C16" t="str">
-        <v>15</v>
-      </c>
-      <c r="D16" t="str">
+      <c r="C29" t="str">
+        <v>28</v>
+      </c>
+      <c r="D29" t="str">
         <v>&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:18px;font-family:Arial;color:#cc0000;background-color:#ffffff;font-weight:bold;"&gt;1.benchmark&lt;/span&gt;&lt;span style="font-size:18px;font-family:Arial;color:#333333;background-color:#ffffff;font-weight:bold;"&gt;&amp;nbsp;&amp;nbsp;(可以测试redis)&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
-        <v>记vue-cli3 使用  element-ui搭建后台的经历.md</v>
-      </c>
-      <c r="B17" t="str">
-        <v/>
-      </c>
-      <c r="C17" t="str">
-        <v>16</v>
-      </c>
-      <c r="D17" t="str" xml:space="preserve">
-        <v xml:space="preserve">#### 1 路由的导入
-```
-const login = r =&gt; require.ensure([], () =&gt; r(require('@/page/login')), 'login');
-```
-与 
-```
-const login = r =&gt; import('@page/login')
-```
-&gt;  #### require.ensure() 是 webpack 特有的，已经被 import() 取代。
-####  2 css 的引用
-```
-&lt;style lang="less" scoped&gt;
-@import "~@/assets/css/style-mixin.less";
-&lt;/style&gt;
-```
-####  3 element UI 导航栏展开后子菜单宽度多出1px问题
-```
-.el-menu {
-  border-right-width: 0;
-}
-```
-#### 4 axios与vue-axios 的区别？
-&gt; axios的使用
-```
-import Vue from 'vue'
-import axios from 'axios';
-Vue.prototype.axios = axios
-```
-&gt; vue-axios的使用
-```
-import Vue from 'vue'
-import axios from 'axios';
-import VueAxios from 'vue-axios'
-Vue.use(VueAxios,axios);
-```
-&gt; 区别
-```
- 其实本质上没有什么区别。只不过一种（axios）是采用挂载到vue实例的原型对象上，
- 而另一种（axios + vue-axios）是通过插件的方式。
-```
-&gt; 为什么要用vue-axios呢
-```
-1.使用 Vue 的插件写法，更符合 Vue 整体生态环境。
-2.方便协作，多人协作的时候，不用注明变量声明。
-```
-#### 5 使用animate.css
-```
-第一步：安装：
-在命令行中执行：npm install animate.css --save
-第二步：引入及使用：
-main.js中：
-import animated from 'animate.css' // npm install animate.css --save安装，在引入
-Vue.use(animated)
-使用：
-vue模板中：
-&lt;div class="ty"&gt;
-    &lt;!-- 直接使用animated中的动画class名，注意：必须使用animated这个class名，否则动画会无效 --&gt;
-	&lt;div class="box animated bounceInDown"&gt;&lt;/div&gt;
-&lt;/div&gt;
-```</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v>cross-env.md</v>
-      </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
-      <c r="C18" t="str">
-        <v>17</v>
-      </c>
-      <c r="D18" t="str" xml:space="preserve">
-        <v xml:space="preserve">什么是cross-env ?
-&gt; 跨平台设置及使用环境变量
-cross-env的作用？
-&gt; 在windows平台下使用类似于: NODE_ENV=production的命令行指令会卡住，windows平台与POSIX在使用命令行时有许多区别（例如在POSIX，使用$ENV_VAR,在windows，使用%ENV_VAR%
-cross-env怎么使用？
-&gt; 1. 安装 npm i -s cross-env
-&gt; 2. 到package.json中配置scripts命令脚本
-示例： 
-```
-{
-  "scripts": {
-    "build": "cross-env NODE_ENV=production webpack --config build/webpack.config.js"
-  }
-}
-```</v>
-      </c>
-    </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
-        <v>前端开发总结.md</v>
-      </c>
-      <c r="B19" t="str">
-        <v/>
-      </c>
-      <c r="C19" t="str">
-        <v>18</v>
-      </c>
-      <c r="D19" t="str" xml:space="preserve">
-        <v xml:space="preserve">```_x000d_
-前端：_x000d_
-1.登录拦截 （axios拦截） _x000d_
-2.路由设计 _x000d_
-3.组件封装考虑 _x000d_
-4.共有属性的状态管理_x000d_
-5.调用接口方法提取_x000d_
-```_x000d_
-_x000d_
-#### 编写组件_x000d_
-`先画UI` -&gt; `再处理事件`</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>lodash.md</v>
-      </c>
-      <c r="B20" t="str">
-        <v/>
-      </c>
-      <c r="C20" t="str">
-        <v>19</v>
-      </c>
-      <c r="D20" t="str" xml:space="preserve">
-        <v xml:space="preserve">#### 简介
-Lodash是一个著名的javascript原生库，不需要引入其他第三方依赖。是一个意在提高开发者效率,提高JS原生方法性能的JS库。简单的说就是，很多方法lodash已经帮你写好了，直接调用就行，不用自己费尽心思去写了，而且可以统一方法的一致性。
-#### 官网
-&gt; https://www.lodashjs.com/s</v>
-      </c>
-    </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str">
-        <v>react-redux.md</v>
-      </c>
-      <c r="B21" t="str">
-        <v/>
-      </c>
-      <c r="C21" t="str">
-        <v>20</v>
-      </c>
-      <c r="D21" t="str" xml:space="preserve">
-        <v xml:space="preserve"># 个人理解_x000d_
-```_x000d_
-注： 外层包裹（Provider 通过store传入）_x000d_
-1. 组件   通过props获取_x000d_
-2. 组件connect -&gt; 映射 mapStateToProps 和 mapDispatchToProps _x000d_
-3. 创建reducer函数 、 action （{type: XX , value: XXX} [也可以改成通用的函数返回]）_x000d_
-···_x000d_
-reducer函数？ -&gt; (state,action) =&gt; { 通过action的type区分要操作的动作,返回state}_x000d_
-reducer通过createState函数挂载到store _x000d_
-···_x000d_
-```_x000d_
-&gt; 补充:  _x000d_
-&gt; mapStateToProps _x000d_
-```_x000d_
-接受一个参数（store对象）, 返回一个对象_x000d_
-```_x000d_
-&gt; mapDispatchToProps_x000d_
-```_x000d_
-丨--函数形式 （接收俩个参数，dispath,props）--&gt; 应该返回对象  {映射函数名：()=&gt;{} // dispatch函数}_x000d_
-丨--对象形式--&gt;  {映射函数名：(dispath)=&gt;{} // dispatch}_x000d_
-```_x000d_
-                _x000d_
-#  redux 与 react-redux_x000d_
-Redux_x000d_
-```_x000d_
-component --&gt; dispatch(action) --&gt; reducer --&gt; subscribe --&gt; getState --&gt; component_x000d_
-```_x000d_
-React-Redux_x000d_
-```_x000d_
-component --&gt; actionCreator(data) --&gt; reducer --&gt; component_x000d_
-```_x000d_
-_x000d_
-# 为啥要用react-redux_x000d_
-```_x000d_
-React其实跟Redux没有直接联系，也就是说，Redux中dispatch触发store tree中state变化，并不会导致React重新渲染。_x000d_
-```_x000d_
-_x000d_
-# 编写的顺序_x000d_
-```_x000d_
-/*_x000d_
-* 1. 提取属性变量到store.js  （存放在state）_x000d_
-* 2. 创建reducer 传入state,编写改变的action_x000d_
-* 3. 使用比较频繁的action可以单独创建函数，封装返回action_x000d_
-* 4. combineReducers整合reducer，传入createState_x000d_
-*_x000d_
-* 调用： @connect()  传入函数 (state)=&gt;({XX: state.XX })_x000d_
-*  this.dispatch(action) 传入action _x000d_
-*/_x000d_
-```</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
-      <c r="A22" t="str">
+    <row r="30">
+      <c r="A30" t="str">
+        <v>java调优.note</v>
+      </c>
+      <c r="B30" t="str">
+        <v>JVM 三大性能调优参数-Xms -Xmx -XssXss规定了每个线程堆栈的大小。一般情况下256K是足够了。影响了此进程中并发线程数大小。-Xms初始的Heap的大小。-Xmx最大Heap的大小。在很多情况下，-Xms和-Xmx设置成一样的。这么设置，是因为当Heap不够用时，会发生内存抖动，影</v>
+      </c>
+      <c r="C30" t="str">
+        <v>29</v>
+      </c>
+      <c r="D30" t="str">
+        <v>&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:24px;color:#333333;background-color:#ffffff;font-weight:bold;"&gt;JVM&amp;nbsp;三大性能调优参数-Xms&amp;nbsp;-Xmx&amp;nbsp;-Xss&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;line-height:1.625;line-height:1.625;"&gt;&lt;span style="color:#4f4f4f;background-color:#ffffff;"&gt;Xss规定了每个线程堆栈的大小。一般情况下256K是足够了。影响了此进程中并发线程数大小。&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;line-height:1.625;line-height:1.625;"&gt;&lt;span style="color:#4f4f4f;background-color:#ffffff;"&gt;-Xms初始的Heap的大小。&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;line-height:1.625;line-height:1.625;"&gt;&lt;span style="color:#4f4f4f;background-color:#ffffff;"&gt;-Xmx最大Heap的大小。&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;line-height:1.625;line-height:1.625;"&gt;&lt;span style="color:#4f4f4f;background-color:#ffffff;"&gt;在很多情况下，-Xms和-Xmx设置成一样的。这么设置，是因为当Heap不够用时，会发生内存抖动，影响程序运行稳定性。&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
         <v>分布式锁.md</v>
       </c>
-      <c r="B22" t="str">
-        <v/>
-      </c>
-      <c r="C22" t="str">
-        <v>21</v>
-      </c>
-      <c r="D22" t="str" xml:space="preserve">
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>30</v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
         <v xml:space="preserve"># 一、 数据库的方式实现
 &gt; **1.新建一个数据库，用于控制锁**  
 &gt; **2.通过插入主键id为1操作，插入成功为加锁成功，失败（主键重复）加锁失败**  
@@ -1053,197 +1465,484 @@
 </v>
       </c>
     </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>node.md</v>
-      </c>
-      <c r="B23" t="str">
-        <v/>
-      </c>
-      <c r="C23" t="str">
-        <v>22</v>
-      </c>
-      <c r="D23" t="str" xml:space="preserve">
-        <v xml:space="preserve">#### mongo
-```
-1.下载mongodb
-curl -O https://fastdl.mongodb.org/linux/mongodb-linux-x86_64-3.2.9.tgz
-2.解压
-tar zxvf mongodb-linux-x86_64-3.2.9.tgz
-3.创建数据文件夹和日志文件等
-mkdir -p  /usr/local/mongodb/data
-touch /usr/local/mongodb/mongod.log
-touch /usr/local/mongodb/mongodb.conf
-4.启动
-　进入mongo的bin目录下执行
-（1）参数启动
-./mongod --dbpath=/usr/local/mongodb/data --logpath=/usr/local/mongodb/mongod.log --logappend  --port=27017 --fork
-　(2) 配置文件启动
-./mongod --config /usr/local/mongodb/mongodb.conf
-   配置文件如下
-dbpath=/usr/local/mongodb/data
-logpath=/usr/local/mongodb/mongod.log
-logappend = true 
-port = 27017 
-fork = true # 是否后台运行
-auth = true # 是否开启权限认证  默认不开启
-```
-https://www.cnblogs.com/jinxiao-pu/p/7121307.html</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>路由.md</v>
-      </c>
-      <c r="B24" t="str">
-        <v/>
-      </c>
-      <c r="C24" t="str">
-        <v>23</v>
-      </c>
-      <c r="D24" t="str" xml:space="preserve">
-        <v xml:space="preserve">1. withRouter
-&gt; 作用：把不是通过路由切换过来的组件中，将react-router 的 history、location、match 三个对象传入props对象上
-简而言之就是让不是通过路由渲染的组件的props上也可以获取到`当前路由`的信息
-&gt; 使用
-```
-import { withRouter } from 'react-router-dom';
-@withRouter
-class ComponentName extends  React.Component{
-    // 这样组件的props 就会默认有history、location、match 这三个对象 
-}
---------------------
-export default withRouter(ComponentName);
-说白了，这就是装饰器
-所以用法和装饰器一样
-```
-&gt; 注意点： 路由的switch下的&lt;Rotue&gt;标签的path范围配置必须有小到大.
-如下: `/login`的路径在配置在 `/`前面
-```
-    &lt;Switch&gt;
-        &lt;Route path="/login" component={Login} /&gt;
-        &lt;Route path="/" component={() =&gt; &lt;Main content={&lt;ContentRoute /&gt;} /&gt;} /&gt;
-    &lt;/Switch&gt;
-```
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>JAVA后端编写接口的总结.md</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v>31</v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v xml:space="preserve">### 一. 接口接受的参数类型
+### 二. 后端的参数校验
+### 三. 对数据库的操作
+### 四. 返回数据的格式
+### 五. 异常的统一处理，消息返回
+### 六. 日志操作记录
+### 七. 单点token校验，接口防滥用</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Guava google的工具库.md</v>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v>32</v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v xml:space="preserve"># Guava
+### 基本分类
+#### 1.字符串 
+&gt;
+&gt;
+#### 2.集合
+&gt;
+&gt;
+#### 3. io
+&gt;
+&gt;
+#### 4.缓存
+&gt;
+&gt;</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>技术栈.md</v>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v>33</v>
+      </c>
+      <c r="D34" t="str" xml:space="preserve">
+        <v xml:space="preserve"># redis:_x000d_
+#### 1.利用sort set ，配合定时器做延时任务_x000d_
+#### 2.利用sort set , 做范围查询_x000d_
+#### 3.redis 代码中使用事务_x000d_
+#### 4.redis分布锁_x000d_
+### 内存淘汰机制_x000d_
+&gt; ### #maxmemory-policy volatile-lru_x000d_
+&gt; 推荐博客：  _x000d_
+redisTempalte的使用 https://blog.csdn.net/qq_25135655/article/details/80357137_x000d_
+_x000d_
+# MYSQL优化_x000d_
+# MyCAT 分表分库_x000d_
+# infuxdb(时序数据库的简单增删改查)_x000d_
+_x000d_
+# ~~mq（消息队列）~~_x000d_
+&gt; rabbitMq 整合springboot.   _x000d_
+&gt;&gt; 三大模式的实现(direct、fanout、topic)  _x000d_
+&gt; 推荐博客:  _x000d_
+&gt; https://blog.csdn.net/m0_37034294  _x000d_
+  _x000d_
+&gt; kafka _x000d_
+_x000d_
+# webscoket(使用netty框架)_x000d_
+_x000d_
+# 分布式 _x000d_
+&gt; zookeeper_x000d_
+_x000d_
+# 设计模式_x000d_
+&gt; 策略模式_x000d_
+_x000d_
+# spring 全家桶:_x000d_
+&gt; #### spring secity 安全权限框架_x000d_
+&gt; #### spring bus    消息队列_x000d_
+&gt; #### spring eureka 注册中心_x000d_
+_x000d_
+# 搜索引擎服务_x000d_
+&gt; #### Elasticsearch_x000d_
+_x000d_
+# JAVA优化_x000d_
+&gt; #### java虚拟机优化_x000d_
+_x000d_
+---_x000d_
+&gt; 并发压力测试：http://www.51testing.com/html/47/n-3721647.html_x000d_
+_x000d_
+# docker_x000d_
+&gt; 服务器环境部署</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>氚云中遇到的坑.note</v>
+      </c>
+      <c r="B35" t="str">
+        <v>问题bug1：当设置流程表单的结束流程有可编辑字段时，普通发起用户是可以进去修改其中的字段解 决:   在表单设计的后端代码中添加权限角色校验，并进行限制。如下代码问题bug2(中间件webservice相关): 当更新表单的某一个字段后，会出现表单中的部分字段值为空的情况原因：  由于通过 Loa</v>
+      </c>
+      <c r="C35" t="str">
+        <v>34</v>
+      </c>
+      <c r="D35" t="str">
+        <v>&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;问题bug1&lt;/span&gt;&lt;span style="font-size:16px;"&gt;：当设置流程表单的结束流程有可编辑字段时，普通发起用户是可以进去修改其中的字段&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;解&amp;nbsp;决&lt;/span&gt;&lt;span style="font-size:16px;"&gt;:&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;"&gt;在表单设计的后端代码中添加权限角色校验，并进行限制。如下代码&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE00f980b346f4eda4c8ca081c0e42ea6a" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;问题bug2(中间件webservice相关)&lt;/span&gt;:&amp;nbsp;&lt;span style="font-size:16px;"&gt;当更新表单的某一个字段后，会出现表单中的部分字段值为空的情况&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;原因：&lt;/span&gt;&amp;nbsp;&lt;span style="font-size:16px;"&gt;&amp;nbsp;由于通过&amp;nbsp;LoadBizObject加载过来的json数据，有一些字段控件是氚云进行处理过的，导致UpdateBizObject更新时变成空值。（如：发起人、附件...这些值都变成【花名】、【文件名】，而不是保存到数据库的id值）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;解决：&lt;/span&gt;&lt;span style="font-size:16px;"&gt;&amp;nbsp;通过LoadBizObject获取其中的ObjectId&amp;nbsp;,&amp;nbsp;与需要更新的部分字段拼接成json，通过UpdateBizObject上传。&amp;nbsp;&amp;nbsp;如下代码（只更新其中的【TranCode】,就不会出现上述情况）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE362e6014aa81b9541327286782339cb5" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;***************************************************************以上为2019/4/11更新**********************************************************************&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;一、关于控件的使用&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;font-weight:bold;"&gt;1.使用“&lt;/span&gt;&lt;span style="font-size:16px;font-weight:bold;text-decoration:underline;"&gt;关联表单&lt;/span&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;”，希望用户选择后，将选中表单包含的字段填充到当前表单的输入框。&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;color:#df402a;"&gt;（之前不知道这个功能，自己在氚云里面写前端ajax请求和后端的根据控件的ObjectId调用方法查询，当时浪费了大量的时间）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE3c7e92f8dfd7a0b1bd0ac3b14c72c93a" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;font-weight:bold;"&gt;2.如何使用三级联动下拉&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;采用“&lt;/span&gt;&lt;span style="font-size:16px;font-weight:bold;text-decoration:underline;"&gt;数据范围限定&lt;/span&gt;&lt;span style="font-size:16px;"&gt;”,限制子类的所属大类为前一个控件选择的值。&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCEe38f681c5181c2f0608ffa69c2c37029" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;二、流程表单和非流程表单对表单中控件操作的控制&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;1.非流程表单（未开启流程）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;表单设计——&amp;gt;表单属性—&amp;gt;操作权限&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE80d33ba2efbf1acb105314b6c0d6b662" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;2.流程表单&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;流程设计——&amp;gt;选择其中的节点——&amp;gt;操作权限&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE5502a4452979623f0a365eea4667d40b" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;三、"巨"坑项&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;1.当录入表单的有个字段设置成不可写时候，那么传递到下个节点这个表单的这个字段控件则为空值&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;color:#df402a;"&gt;（希望字段隐藏，但是后期在代码中，为了方便取值的字段控件这种情况会出现）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;font-weight:bold;"&gt;解决&lt;/span&gt;&lt;span style="font-size:16px;"&gt;：&amp;nbsp;①.将字段权限在录入的时候设置可写；&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;②.在表单设计——&amp;gt;前端代码中添加设置控件不可见代码&amp;nbsp;。&amp;nbsp;&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;background-color:#FAE220;font-weight:bold;"&gt;&amp;nbsp;this.控件id.SetVisible(&amp;nbsp;false&amp;nbsp;);&amp;nbsp;&amp;nbsp;设置控件不可见&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;background-color:#FAE220;font-weight:bold;"&gt;&amp;nbsp;this.reimOpenBank.SetReadonly(true);&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;设置控件不可修改&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;四、调用中间件的webservice服务的坑&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;1.在中间件编写的webservice接口必须符合氚云的接口规范!&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;必须满足:&amp;nbsp;包含氚云指定的四个开放接口方法：&amp;nbsp;&amp;nbsp;GetSchema、Invoke、GetList、GetSchemaList&amp;nbsp;（区分大小写，并且方法的参数也必须一一对应，且区别大小写）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;color:#df402a;"&gt;(之前就是因为氚云官网开发者文档中更新不及时，参数的大小写不同，导致接口无法调通，真心坑。。。)&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE52dd31f37d5be4018705f667d053710d" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;五、补充&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;1.可以直接从浏览器中地址栏中看到当前表单的id&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;"&gt;&lt;img data-media-type="image" src="WEBRESOURCEe318ea96d19204c525cb4965d8a6460a" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;2.在列表设计中，前端代码是写不了ajax请求的，业务逻辑必须在后端代码中编写&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;3.如果希望在流程结束的时候，触发事件，可以在表单设计的后端代码中添加下面代码示例&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:620;height:303;"&gt;&lt;img data-media-type="image" src="WEBRESOURCEbf17779cccecc27150229d7025139c75" alt="" style="width:620px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:16px;font-weight:bold;"&gt;六、总结&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;span style="font-size:16px;"&gt;总体上觉得氚云这个平台功能还是比较强大的，用于自己公司的内部管理还是挺不错的。&lt;/span&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Pr入门.mindmap</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>35</v>
+      </c>
+      <c r="D36" t="str">
+        <v>[object Object]</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Linux.md</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v>36</v>
+      </c>
+      <c r="D37" t="str" xml:space="preserve">
+        <v xml:space="preserve"># Linux命令
+### 查看当前系统版本
+&gt; lsb_release -a 
+### 查看剩余磁盘空间大小
+&gt; df -k
+### 查看ip
+&gt; ifconfig -a</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>RabbitMQ.md</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v>37</v>
+      </c>
+      <c r="D38" t="str" xml:space="preserve">
+        <v xml:space="preserve"># RabbitMQ
+### 简介
+&gt; 默认端口 5672  
+&gt; 图形化管理界面 本机ip：15672  
+&gt; 默认的用户账号密码: guest guest
+### 概念
+|名称|exchange|queue|rounting-key|bind|
+|-|-|-|-|-|
+|中文意思|交换机|队列|路由key|绑定|
+|解释|介于生产与队列、消费者与队列的中间层|用于存放消息|用于区别要转发的队列|交换机与队列的绑定|
+### 交换机的几种类型
+* direct   
+&gt; direct 类型的行为是"先匹配, 再投送". 即在绑定时设定一个 routing_key, 消息的routing_key 匹配时, 才会被交换器投送到绑定的队列中去.
+* topic 
+&gt; 可以理解是灵活的direct交换机. 主要通过将 rounting key 设置成通配符,去转发消息.
+&gt;&gt;  #号代表零个或多个词  
+&gt;&gt;  *号代表一个词
+* fanout  
+&gt; 分发、广播模式. 发送消息给所有匹配的消息队列
+### 应用(与springboot整合) 
+###### 一、引入pom依赖
+```
+ &lt;dependency&gt;
+    &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;
+    &lt;artifactId&gt;spring-boot-starter-amqp&lt;/artifactId&gt;
+&lt;/dependency&gt;
+```
+###### 二、配置yml文件
+```
+spring:
+  rabbitmq:
+    host: 47.106.200.221
+    port: 5672
+    username: guest
+    password: guest
+    publisher-confirms: true #  消息发送到交换机确认机制,是否确认回调
+    publisher-returns: true   #  消息发送到交换机确认机制,是否返回回调
+    listener:
+      simple:
+        acknowledge-mode: manual # 采用手动应答
+        concurrency: 1  # 消费者的最小数量
+        max-concurrency: 10 # 消费者的最大数量
+        retry:
+          enabled: true  #是否支持重试
+```
+###### 三、相关配置与实现代码地址
+&gt; https://github.com/sleepq123/springboot-restful-token-/tree/master/src/main/java/com/sleepq123/demo/config/amqp</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>接口调用.md</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v>38</v>
+      </c>
+      <c r="D39" t="str" xml:space="preserve">
+        <v xml:space="preserve">* 调用接口可以添加重试机制代码    
+* 对方接口有超频限制，本地服务可以添加调用限制操作</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>相关账号密码.md</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>39</v>
+      </c>
+      <c r="D40" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 相关账号密码
+### 壹网壹创金蝶云测试账号:
++ **地址**： https://ywyc-123.test.ik3cloud.com/K3cloud
++ **账号**： demo
++ **密码**： ywyc@8888
+---
++ **管理员账号**： administrator
++ **管理员密码**： ywyc@123321
+---
++ **氚云EngineCode**： j3f4lh3oq8pvce3u57jbkhz51    
++ **氚云EngineSecret**： W/XdNQJUYJvuSOgDpMyhKCSAMDLqpnET1YoC/aHm/y8NewcSgn1YbQ==
+### 公司服务器账号：
++ **地址**： 106.14.65.8
++ **账号**： administrator
++ **密码**： ik3cloud.com
+### 公司金蝶云测试账号:
++ **地址**：http://106.14.65.8/k3cloud/
++ **acctID**: 5ba1bd81d59bdf
++ **账号**：kjq
++ **密码**：123456s
+### 管易测试账号
++ www.guanyierp.com   
++ **账号**:  2978586432@qq.com  
++ **密码**:  GYsoft@12
 </v>
       </c>
     </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
-        <v>项目遇到的问题.md</v>
-      </c>
-      <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <v>24</v>
-      </c>
-      <c r="D25" t="str" xml:space="preserve">
-        <v xml:space="preserve">### 1. 跨域代理问题 (cros proxy)
-&gt;   根目录添加vue.config.js, 搜文档"proxy"
-### 2. 对vue动画的理解
-### 3. 时间转化库 moment.js
-### 4. 评论功能组件的封装
-### 5. domObject.getBoundingClientRect()
-&gt; 获取盒子距屏幕的宽高
-### 6. 动态引入图片路径
-```
-vue-cli3中内置的webpack会把图片当做一个模块引用，然后打包等等
-```
-### 7. 
-### css  less语法
-&gt; * 并集选择器 和 伪类选择器的写法
-&gt;&gt; 并集选择器
-```css
-.mint-swipe-item {
-    &amp;:nth-child(2n) {
-      background-color: aqua;
+    <row r="41">
+      <c r="A41" t="str">
+        <v>氚云流程设置.note</v>
+      </c>
+      <c r="B41" t="str">
+        <v>一、连接线设置条件1.流程的主要判断是根据 [ 费用项目（审核流程）]进行判断走哪个流程.  2.当多个费用项目的流程相同的时候，使用[ OR ]连接.3.一般使用[ 自定义条件 ]  相当于  “如果以下条件满足”   [ 使用else条件 ]  相当于 “当不满足同级的所有条件时，进入这条连接线</v>
+      </c>
+      <c r="C41" t="str">
+        <v>40</v>
+      </c>
+      <c r="D41" t="str">
+        <v>&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:26px;font-weight:bold;"&gt;一、连接线设置条件&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:22px;"&gt;1.流程的主要判断是根据&amp;nbsp;[&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;费用项目（审核流程）&lt;/span&gt;&lt;span style="font-size:22px;"&gt;]进行判断走哪个流程.&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:22px;"&gt;2.当多个费用项目的流程相同的时候，使用&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;[&amp;nbsp;OR&amp;nbsp;]&lt;/span&gt;&lt;span style="font-size:22px;"&gt;连接.&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:568;height:445;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE7dff0e8b87457ec69d92ea5fb6ca2d48" alt="" style="width:568px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:22px;"&gt;3.一般使用[&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;自定义条件&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;"&gt;]&amp;nbsp;&amp;nbsp;相当于&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;“如果以下条件满足”&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;"&gt;[&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;&amp;nbsp;使用else条件&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;"&gt;]&amp;nbsp;&amp;nbsp;相当于&amp;nbsp;&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;“&lt;/span&gt;&lt;span style="font-size:22px;color:#424242;background-color:#ffffff;font-weight:bold;"&gt;当不满足同级的所有条件时，进入这条连接线下的节点。&lt;/span&gt;&lt;span style="font-size:22px;font-weight:bold;"&gt;”&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:248;height:323;"&gt;&lt;img data-media-type="image" src="WEBRESOURCEd27e307f4be427f3001c15483c867342" alt="" style="width:248px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:26px;font-weight:bold;"&gt;二、审核人设置&amp;nbsp;（先把流程创建完成，然后设置审核人,可以稍后设置）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:26px;color:#df402a;font-weight:bold;"&gt;ps:建议每设置一条流程，保存一下，避免造成数据丢失，重复作业）&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>氚云.md</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v>41</v>
+      </c>
+      <c r="D42" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 氚云
+### 前端 ： 
+```
+```
+### 后端
+&gt; 接入httpClient  
+&gt; 推荐博客地址： https://www.cnblogs.com/mykcode/p/7833090.html
+### 前端调后端接口
+&gt; https://h3yun.com/help/developer.php?CateId=26
+---
+&gt; # 个人总结:
+&gt;
+&gt; ## 一、中间件编写 (webservice)
+&gt; + #### 必须满足氚云提出的结构,必须包含4个方法，示例如下：   
+&gt; http://help.h3yun.com/channels/3.html#%E5%A4%96%E9%83%A8%E7%B3%BB%E7%BB%9F%E9%9B%86%E6%88%90
+&gt;
+&gt; + #### 氚云如何传值到我们自己编写的中间件？  
+&gt; 示例代码:
+~~~
+    // 定义传输结构
+    H3.BizBus.BizStructureSchema paramSchema = new H3.BizBus.BizStructureSchema();
+    paramSchema.Add(new H3.BizBus.ItemSchema("paramName", "需要传入的字段名", H3.Data.BizDataType.String, 1000, null));
+    // 初始化传输对象
+    H3.BizBus.BizStructure paramData = new H3.BizBus.BizStructure(paramSchema);
+    paramData["paramName"] = "传入的值value";
+~~~
+&gt; + #### 中间件如何接收氚云传递的值？  
+&gt;  需要导入的包： Newtonsoft.Json.dll  
+&gt;  示例代码:
+~~~
+    JObject obj = JObject.Parse(param);
+    string value = param["param"];
+~~~
+---</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>壹网壹创费用报销单审核流程配置.note</v>
+      </c>
+      <c r="B43" t="str">
+        <v>费用报销单审核流程配置流程图：角色配置：</v>
+      </c>
+      <c r="C43" t="str">
+        <v>42</v>
+      </c>
+      <c r="D43" t="str">
+        <v>&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:42px;font-weight:bold;"&gt;费用报销单审核流程配置&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="hr" style="clear:both;"&gt;&lt;div style="height: 1px; width: 100%; background-color: #999999;"&gt;&lt;/div&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:26px;font-weight:bold;"&gt;流程图：&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:604;height:598;"&gt;&lt;img data-media-type="image" src="WEBRESOURCEa04d8830e3c022a17f7246ef28c86342" alt="" style="width:604px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;span style="font-size:26px;font-weight:bold;"&gt;角色配置：&lt;/span&gt;&lt;/div&gt;&lt;div yne-bulb-block="image" style="width:327;height:388;"&gt;&lt;img data-media-type="image" src="WEBRESOURCE9b3e0e031eba9be324fa45be8a6be1a5" alt="" style="width:327px;"&gt;&lt;/div&gt;&lt;div yne-bulb-block="paragraph" style="white-space: pre-wrap;"&gt;&lt;br&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>C# 入坑指南.md</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>43</v>
+      </c>
+      <c r="D44" t="str" xml:space="preserve">
+        <v xml:space="preserve"># C# 入坑指南
+#### 一、部署C# WEB服务到iis管理器
+&gt; * 1. 打开VS -&gt; 右键项目 -&gt; 发布 -&gt; 选取发布目标 -&gt; 文件夹（输入发布项目的路径） 
+&gt;    
+&gt; * 2. 我的电脑 -&gt; 管理 -&gt; 服务和应用程序 -&gt; Internet Information Service (IIS管理器) -&gt;  
+&gt; -&gt; (IIS)管理器 -&gt; 添加网站 -&gt; (输入要发布的端口,选取发布的文件路径为第一步发布的路径等信息)
+#### 二、如何断点调试部署在远程服务器iis上的项目
+&gt; 打开VS -&gt; 工具 -&gt; 选项 -&gt; 调试  
+&gt; * 取消勾选“仅启用我的代码”
+&gt; * 取消勾选“要求源文件与原始文件版本完全相同”
+&gt; * **建议**:勾选 与兼容相关的选项
+&gt; 右键项目 -&gt; 属性 -&gt; 
+&gt;
+&gt; -&gt; Web -&gt; 调试器
+&gt;&gt; * 勾选本地代码
+&gt;&gt; * 勾选启用“编辑并继续”  
+&gt;
+&gt; -&gt; 生成 -&gt; 取消勾选代码优化
+&gt; 工具 -&gt; 调试 -&gt; 附加到进程 -&gt; 选择对应的W3P3.EXE进程
+&gt; #### OK~~~
+&gt; ##### 注意：添加进程的时候，必须确保当前为debug模式  
+&gt; ##### *若不成功可以尝试重启Vs解决问题*
+&gt; ##### *若还是不成功，建议先用本机浏览器进入web服务后，再次附加进程*</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>费用报销存待解决问题.md</v>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v>44</v>
+      </c>
+      <c r="D45" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 费用报销存待解决问题
++ ####  费用单提交付款后，不能更新付款状态（调试状态下，却可以提交）
++ ####  职员、供应商、客户三个列在列表中效果不太美观
++ ####  钉钉app，输入不能实现自动填充与转换
++ ####  ~~金蝶获取供应商、客户信息未实现~~</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>使用Cors解决跨域问题.md</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v>45</v>
+      </c>
+      <c r="D46" t="str" xml:space="preserve">
+        <v xml:space="preserve"># 使用Cors解决跨域问题
+```java
+package com.sleepq123.demo.config;
+import org.springframework.context.annotation.Bean;
+import org.springframework.context.annotation.Configuration;
+import org.springframework.web.cors.CorsConfiguration;
+import org.springframework.web.cors.UrlBasedCorsConfigurationSource;
+import org.springframework.web.filter.CorsFilter;
+/**
+ * cors全局配置 解决跨域问题
+ *
+ * @author lc
+ * @date 2019/1/19 16:01
+ **/
+@Configuration
+public class CrosConfig {
+    private CorsConfiguration buildCors(){
+        CorsConfiguration corsConfiguration = new CorsConfiguration();
+        corsConfiguration.addAllowedOrigin("*");
+        corsConfiguration.addAllowedHeader("*");
+        corsConfiguration.addAllowedMethod("*");
+        return corsConfiguration;
     }
-    &amp;:nth-child(2n + 1) {
-      background-color: greenyellow;
-    }
-    img {
-      width: 100%;
-      height: 100%;
+    @Bean
+    public CorsFilter corsFilter() {
+        UrlBasedCorsConfigurationSource source = new UrlBasedCorsConfigurationSource();
+        source.registerCorsConfiguration("/**", buildCors());
+        return new CorsFilter(source);
     }
 }
-```</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>使用装饰器报错.md</v>
-      </c>
-      <c r="B26" t="str">
-        <v/>
-      </c>
-      <c r="C26" t="str">
-        <v>25</v>
-      </c>
-      <c r="D26" t="str" xml:space="preserve">
-        <v xml:space="preserve">**报错**
-&gt; Support for the experimental syntax 'decorators-legacy' isn't currently enabled (9:5):
-**解决**
-&gt; npm install @babel/plugin-proposal-decorators
-&gt; 在package.json中修改babel,如下
-```
-"babel": {
-    "plugins":[
-      [
-        "@babel/plugin-proposal-decorators",
-        {
-          "legacy":true
-        }
-      ],
-      [
-        "@babel/plugin-proposal-class-properties",
-        {
-          "loose":true
-        }
-      ]
-    ],
-    "presets": [
-      "react-app"
-    ]
-  }
-```</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27" t="str">
-        <v>spring的那些小事.md</v>
-      </c>
-      <c r="B27" t="str">
-        <v/>
-      </c>
-      <c r="C27" t="str">
-        <v>26</v>
-      </c>
-      <c r="D27" t="str" xml:space="preserve">
-        <v xml:space="preserve"># 关于spring的那些小事
-### JPA 
-&gt; 推荐博客： https://www.cnblogs.com/wangdaijun/p/7064979.html
-#### 读取配置文件中的属性  
-```
-  @PropertySource("classpath:config/webservice.properties")
-  类名{
-      @Value("${属性名}")
-      private String 属性名;
-  }
-```
-### springboot如何启用外部tomcat 
-```
-```
-### BeanPostProcesso
-```
-```
+```
+前端请求出现502:ajax请求后响应出错（代码中用了没有返回的值）</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Redis(1).md</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v>46</v>
+      </c>
+      <c r="D47" t="str" xml:space="preserve">
+        <v xml:space="preserve"># Redis
+## 简介
++ redis默认端口为 6379  
++ 有16个数据库 （0-15）默认0 
+&gt; 切换数据库命令：select 0
+## 基础命令
+##### 查看所有key
+&gt; keys *
+##### redis查看密码、设置密码
++ 查看密码：
+&gt; config get requirepass
++ 设置密码:
+&gt; config set requirepass **"你要设置的密码"**
+##### 各类数据类型的插入与查看
+* list 插入
+&gt; lpush list vlaue1  
+&gt; lpush list vlaue2  
+&gt; lpush list vlaue3  
+* list 查看
+&gt; lrange list startIndex endIndex
 </v>
       </c>
     </row>
-    <row r="28"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D47"/>
   </ignoredErrors>
 </worksheet>
 </file>